--- a/Spankulator.xlsx
+++ b/Spankulator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Dropbox\moog\spankulator\Spankulator-Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910627F4-7EEB-4144-95BA-0DD91584A1CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957DA3D6-3C32-4DDB-87F4-CCDC940075CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
   <si>
     <t>Reference</t>
   </si>
@@ -418,6 +418,24 @@
   </si>
   <si>
     <t>1722-1241-ND</t>
+  </si>
+  <si>
+    <t>SK6</t>
+  </si>
+  <si>
+    <t>Fram header pins</t>
+  </si>
+  <si>
+    <t>732-5321-ND</t>
+  </si>
+  <si>
+    <t>N1-5</t>
+  </si>
+  <si>
+    <t>HEX NUT 0.197" NYLON M2.5</t>
+  </si>
+  <si>
+    <t>36-4687-ND</t>
   </si>
 </sst>
 </file>
@@ -735,16 +753,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" customWidth="1"/>
     <col min="4" max="4" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1364,7 +1382,36 @@
         <v>130</v>
       </c>
     </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Spankulator.xlsx
+++ b/Spankulator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Dropbox\moog\spankulator\Spankulator-Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957DA3D6-3C32-4DDB-87F4-CCDC940075CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DC3DD4-4EC4-4F20-B7B0-F8D5798BB96B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="142">
   <si>
     <t>Reference</t>
   </si>
@@ -81,9 +81,6 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>478-2472-ND</t>
-  </si>
-  <si>
     <t xml:space="preserve">C8 C10 </t>
   </si>
   <si>
@@ -192,9 +189,6 @@
     <t>S7037-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">Q1 </t>
-  </si>
-  <si>
     <t>TN2106</t>
   </si>
   <si>
@@ -216,12 +210,6 @@
     <t>2N3904</t>
   </si>
   <si>
-    <t>2N3904FS-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1 R15 R11 R5 R8 </t>
-  </si>
-  <si>
     <t>10K</t>
   </si>
   <si>
@@ -297,155 +285,190 @@
     <t xml:space="preserve">SW1 </t>
   </si>
   <si>
+    <t xml:space="preserve">SW5 SW4 SW3 SW2 SW7 SW6 SW8 </t>
+  </si>
+  <si>
+    <t>450-1643-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP1 TP2 </t>
+  </si>
+  <si>
+    <t>TestPoint</t>
+  </si>
+  <si>
+    <t>36-5006-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1 U3 </t>
+  </si>
+  <si>
+    <t>TL072</t>
+  </si>
+  <si>
+    <t>296-14997-5-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2 </t>
+  </si>
+  <si>
+    <t>CD4013BE</t>
+  </si>
+  <si>
+    <t>296-2033-5-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4 </t>
+  </si>
+  <si>
+    <t>MC7805CTG</t>
+  </si>
+  <si>
+    <t>MC7805CTGOS-ND</t>
+  </si>
+  <si>
+    <t>SK3</t>
+  </si>
+  <si>
+    <t>IC Sockets 14 Pin</t>
+  </si>
+  <si>
+    <t>AE9989-ND</t>
+  </si>
+  <si>
+    <t>SK4 SK5</t>
+  </si>
+  <si>
+    <t>IC Sockets 8 Pin</t>
+  </si>
+  <si>
+    <t>AE9986-ND</t>
+  </si>
+  <si>
+    <t>SO1 SO2 SO3 SO4</t>
+  </si>
+  <si>
+    <t>12mm M2.5 Hex Standoff</t>
+  </si>
+  <si>
+    <t>732-13063-ND</t>
+  </si>
+  <si>
+    <t>11mm M2.5 Hex Standoff</t>
+  </si>
+  <si>
+    <t>732-13059-ND</t>
+  </si>
+  <si>
+    <t>SC1 SC2 SC3 SC4 SC5</t>
+  </si>
+  <si>
+    <t>M2.5 Nylon Screw</t>
+  </si>
+  <si>
+    <t>36-29331-ND</t>
+  </si>
+  <si>
+    <t>KN1</t>
+  </si>
+  <si>
+    <t>Deluxe Knob</t>
+  </si>
+  <si>
+    <t>226-4215-ND</t>
+  </si>
+  <si>
+    <t>KN2</t>
+  </si>
+  <si>
+    <t>Knob</t>
+  </si>
+  <si>
+    <t>1722-1241-ND</t>
+  </si>
+  <si>
+    <t>SK6</t>
+  </si>
+  <si>
+    <t>Fram header pins</t>
+  </si>
+  <si>
+    <t>732-5321-ND</t>
+  </si>
+  <si>
+    <t>HEX NUT 0.197" NYLON M2.5</t>
+  </si>
+  <si>
+    <t>36-4687-ND</t>
+  </si>
+  <si>
+    <t>OLED Display</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>FRAM Module</t>
+  </si>
+  <si>
+    <t>1528-1035-ND</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>732-5317-ND</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B072Q2X2LL/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 Q6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 R15 R11 R5 R8 R21 </t>
+  </si>
+  <si>
     <t>Adj</t>
   </si>
   <si>
-    <t>PEC11R-4315F-S0012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW5 SW4 SW3 SW2 SW7 SW6 SW8 </t>
-  </si>
-  <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>450-1643-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP1 TP2 </t>
-  </si>
-  <si>
-    <t>TestPoint</t>
-  </si>
-  <si>
-    <t>36-5006-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1 U3 </t>
-  </si>
-  <si>
-    <t>TL072</t>
-  </si>
-  <si>
-    <t>296-14997-5-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2 </t>
-  </si>
-  <si>
-    <t>CD4013BE</t>
-  </si>
-  <si>
-    <t>296-2033-5-ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4 </t>
-  </si>
-  <si>
-    <t>MC7805CTG</t>
-  </si>
-  <si>
-    <t>MC7805CTGOS-ND</t>
-  </si>
-  <si>
-    <t>SK1 SK2</t>
-  </si>
-  <si>
-    <t>Arduino Sockets</t>
-  </si>
-  <si>
-    <t>S7048-ND</t>
-  </si>
-  <si>
-    <t>SK3</t>
-  </si>
-  <si>
-    <t>IC Sockets 14 Pin</t>
-  </si>
-  <si>
-    <t>AE9989-ND</t>
-  </si>
-  <si>
-    <t>SK4 SK5</t>
-  </si>
-  <si>
-    <t>IC Sockets 8 Pin</t>
-  </si>
-  <si>
-    <t>AE9986-ND</t>
-  </si>
-  <si>
-    <t>SO1 SO2 SO3 SO4</t>
-  </si>
-  <si>
-    <t>12mm M2.5 Hex Standoff</t>
-  </si>
-  <si>
-    <t>732-13063-ND</t>
-  </si>
-  <si>
-    <t>SO5</t>
-  </si>
-  <si>
-    <t>11mm M2.5 Hex Standoff</t>
-  </si>
-  <si>
-    <t>732-13059-ND</t>
-  </si>
-  <si>
-    <t>SC1 SC2 SC3 SC4 SC5</t>
-  </si>
-  <si>
-    <t>M2.5 Nylon Screw</t>
-  </si>
-  <si>
-    <t>36-29331-ND</t>
-  </si>
-  <si>
-    <t>KN1</t>
-  </si>
-  <si>
-    <t>Deluxe Knob</t>
-  </si>
-  <si>
-    <t>226-4215-ND</t>
-  </si>
-  <si>
-    <t>KN2</t>
-  </si>
-  <si>
-    <t>Knob</t>
-  </si>
-  <si>
-    <t>1722-1241-ND</t>
-  </si>
-  <si>
-    <t>SK6</t>
-  </si>
-  <si>
-    <t>Fram header pins</t>
-  </si>
-  <si>
-    <t>732-5321-ND</t>
-  </si>
-  <si>
-    <t>N1-5</t>
-  </si>
-  <si>
-    <t>HEX NUT 0.197" NYLON M2.5</t>
-  </si>
-  <si>
-    <t>36-4687-ND</t>
+    <t>SO5 SO6 SO7</t>
+  </si>
+  <si>
+    <t>N1-7</t>
+  </si>
+  <si>
+    <t>Display Header Pins</t>
+  </si>
+  <si>
+    <t>2N3904-APCT-ND</t>
+  </si>
+  <si>
+    <t>PEC12R-4230F-S0024-ND</t>
+  </si>
+  <si>
+    <t>399-4329-ND</t>
+  </si>
+  <si>
+    <t>Switch Push Button</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -468,13 +491,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -753,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,278 +873,278 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>35</v>
-      </c>
-      <c r="D12" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>41</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
         <v>55</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B26">
         <v>6</v>
@@ -1127,291 +1153,319 @@
         <v>470</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B27">
         <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B32">
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D43" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D47" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C48" r:id="rId1" xr:uid="{FBD5BBEE-7E6E-42B6-97FE-3B210B7C5D61}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Spankulator.xlsx
+++ b/Spankulator.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Dropbox\moog\spankulator\Spankulator-Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DC3DD4-4EC4-4F20-B7B0-F8D5798BB96B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EEEEE55E-4301-4EF7-B0B0-0B7754D94266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="154">
   <si>
     <t>Reference</t>
   </si>
@@ -39,6 +34,9 @@
     <t xml:space="preserve"> Digi-Key Part</t>
   </si>
   <si>
+    <t xml:space="preserve"> URL</t>
+  </si>
+  <si>
     <t xml:space="preserve">A1 </t>
   </si>
   <si>
@@ -63,6 +61,9 @@
     <t>1uF</t>
   </si>
   <si>
+    <t>~</t>
+  </si>
+  <si>
     <t>445-180204-ND</t>
   </si>
   <si>
@@ -81,6 +82,9 @@
     <t>100nF</t>
   </si>
   <si>
+    <t>399-4329-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">C8 C10 </t>
   </si>
   <si>
@@ -144,13 +148,40 @@
     <t>1N4148VSCT-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">J2 </t>
-  </si>
-  <si>
-    <t>2X8 Header</t>
-  </si>
-  <si>
-    <t>S2011EC-08-ND</t>
+    <t xml:space="preserve">H2 H3 H1 H4 </t>
+  </si>
+  <si>
+    <t>MountingHole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H5 H6 H7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J10 </t>
+  </si>
+  <si>
+    <t>FRAM Pins</t>
+  </si>
+  <si>
+    <t>732-5321-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J11 </t>
+  </si>
+  <si>
+    <t>OLED Pins</t>
+  </si>
+  <si>
+    <t>732-5317-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J12 J13 </t>
+  </si>
+  <si>
+    <t>Arduino Socket</t>
+  </si>
+  <si>
+    <t>S7048-ND</t>
   </si>
   <si>
     <t xml:space="preserve">J3 J4 J5 J6 J1 </t>
@@ -189,6 +220,54 @@
     <t>S7037-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">KN1 </t>
+  </si>
+  <si>
+    <t>Selector Knob</t>
+  </si>
+  <si>
+    <t>226-4215-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KN2 </t>
+  </si>
+  <si>
+    <t>Scale Knob</t>
+  </si>
+  <si>
+    <t>1722-1241-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M1 </t>
+  </si>
+  <si>
+    <t>FRAM_Module</t>
+  </si>
+  <si>
+    <t>1528-1035-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M2 </t>
+  </si>
+  <si>
+    <t>OLED_Module</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B072Q2X2LL/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N1 N2 N3 N4 N5 N6 N7 </t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>36-4687-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q1 Q6 </t>
+  </si>
+  <si>
     <t>TN2106</t>
   </si>
   <si>
@@ -210,6 +289,12 @@
     <t>2N3904</t>
   </si>
   <si>
+    <t>2N3904-APCT-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1 R15 R11 R5 R8 R21 </t>
+  </si>
+  <si>
     <t>10K</t>
   </si>
   <si>
@@ -282,9 +367,60 @@
     <t>PTV09A-4225F-B102-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">SC1 SC2 SC3 SC4 SC5 </t>
+  </si>
+  <si>
+    <t>Nylon Screw</t>
+  </si>
+  <si>
+    <t>36-29331-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK3 </t>
+  </si>
+  <si>
+    <t>A_14-LC-TT</t>
+  </si>
+  <si>
+    <t>AE9989-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK4 SK5 </t>
+  </si>
+  <si>
+    <t>A_08-LC-TT</t>
+  </si>
+  <si>
+    <t>AE9986-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO1 SO2 SO3 SO4 </t>
+  </si>
+  <si>
+    <t>Standoff 12mm</t>
+  </si>
+  <si>
+    <t>732-13063-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SO5 SO6 SO7 </t>
+  </si>
+  <si>
+    <t>Standoff 11mm</t>
+  </si>
+  <si>
+    <t>732-13059-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">SW1 </t>
   </si>
   <si>
+    <t>Adj</t>
+  </si>
+  <si>
+    <t>PEC12R-4230F-S0024-ND</t>
+  </si>
+  <si>
     <t xml:space="preserve">SW5 SW4 SW3 SW2 SW7 SW6 SW8 </t>
   </si>
   <si>
@@ -327,140 +463,162 @@
     <t>MC7805CTGOS-ND</t>
   </si>
   <si>
-    <t>SK3</t>
-  </si>
-  <si>
-    <t>IC Sockets 14 Pin</t>
-  </si>
-  <si>
-    <t>AE9989-ND</t>
-  </si>
-  <si>
-    <t>SK4 SK5</t>
-  </si>
-  <si>
-    <t>IC Sockets 8 Pin</t>
-  </si>
-  <si>
-    <t>AE9986-ND</t>
-  </si>
-  <si>
-    <t>SO1 SO2 SO3 SO4</t>
-  </si>
-  <si>
-    <t>12mm M2.5 Hex Standoff</t>
-  </si>
-  <si>
-    <t>732-13063-ND</t>
-  </si>
-  <si>
-    <t>11mm M2.5 Hex Standoff</t>
-  </si>
-  <si>
-    <t>732-13059-ND</t>
-  </si>
-  <si>
-    <t>SC1 SC2 SC3 SC4 SC5</t>
-  </si>
-  <si>
-    <t>M2.5 Nylon Screw</t>
-  </si>
-  <si>
-    <t>36-29331-ND</t>
-  </si>
-  <si>
-    <t>KN1</t>
-  </si>
-  <si>
-    <t>Deluxe Knob</t>
-  </si>
-  <si>
-    <t>226-4215-ND</t>
-  </si>
-  <si>
-    <t>KN2</t>
-  </si>
-  <si>
-    <t>Knob</t>
-  </si>
-  <si>
-    <t>1722-1241-ND</t>
-  </si>
-  <si>
-    <t>SK6</t>
-  </si>
-  <si>
-    <t>Fram header pins</t>
-  </si>
-  <si>
-    <t>732-5321-ND</t>
-  </si>
-  <si>
-    <t>HEX NUT 0.197" NYLON M2.5</t>
-  </si>
-  <si>
-    <t>36-4687-ND</t>
-  </si>
-  <si>
-    <t>OLED Display</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>FRAM Module</t>
-  </si>
-  <si>
-    <t>1528-1035-ND</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>732-5317-ND</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/product/B072Q2X2LL/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1 Q6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1 R15 R11 R5 R8 R21 </t>
-  </si>
-  <si>
-    <t>Adj</t>
-  </si>
-  <si>
-    <t>SO5 SO6 SO7</t>
-  </si>
-  <si>
-    <t>N1-7</t>
-  </si>
-  <si>
-    <t>Display Header Pins</t>
-  </si>
-  <si>
-    <t>2N3904-APCT-ND</t>
-  </si>
-  <si>
-    <t>PEC12R-4230F-S0024-ND</t>
-  </si>
-  <si>
-    <t>399-4329-ND</t>
-  </si>
-  <si>
-    <t>Switch Push Button</t>
+    <t xml:space="preserve">W1 W2 W3 W4 </t>
+  </si>
+  <si>
+    <t>Washer</t>
+  </si>
+  <si>
+    <t>RPC3448-ND</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Arduino-Nano-33-IoT/dp/B07VW9TSKD/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J14 </t>
+  </si>
+  <si>
+    <t>Eurorack Power Cable</t>
+  </si>
+  <si>
+    <t>H3CCS-1618G-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -474,15 +632,188 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -490,18 +821,207 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="43">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,7 +1053,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -545,7 +1065,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -592,6 +1112,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -627,6 +1164,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -778,21 +1332,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -805,204 +1357,204 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -1016,7 +1568,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -1030,12 +1582,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>52</v>
@@ -1044,54 +1596,54 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>54</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B20">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="D20" t="s">
         <v>56</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>57</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
         <v>59</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
-      <c r="D21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>133</v>
-      </c>
       <c r="B22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>61</v>
@@ -1100,12 +1652,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>64</v>
@@ -1114,12 +1666,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>66</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
@@ -1128,12 +1680,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>69</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>70</v>
@@ -1142,330 +1694,388 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
       <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26">
-        <v>470</v>
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>98</v>
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <v>470</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B41">
         <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>131</v>
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C48" r:id="rId1" xr:uid="{FBD5BBEE-7E6E-42B6-97FE-3B210B7C5D61}"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Spankulator.xlsx
+++ b/Spankulator.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shannon\Dropbox\moog\spankulator\Spankulator-Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EEEEE55E-4301-4EF7-B0B0-0B7754D94266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625CFF4E-1413-4468-AEA4-8ED87622F39D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="157">
   <si>
     <t>Reference</t>
   </si>
@@ -482,12 +482,21 @@
   </si>
   <si>
     <t>H3CCS-1618G-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC6 SC7 SC8 SC9 </t>
+  </si>
+  <si>
+    <t>Mounting Screw</t>
+  </si>
+  <si>
+    <t>335-1156-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1332,11 +1341,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1920,161 +1929,175 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B48">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D50" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>147</v>
       </c>
-      <c r="B52">
+      <c r="B53">
         <v>4</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>148</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
